--- a/biology/Médecine/Marie-France_Hirigoyen/Marie-France_Hirigoyen.xlsx
+++ b/biology/Médecine/Marie-France_Hirigoyen/Marie-France_Hirigoyen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-France Hirigoyen, née en 1949, est une psychiatre et psychothérapeute familiale française. Elle est connue pour ses recherches sur le harcèlement moral.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie-France Hirigoyen naît à Coulaines, dans la Sarthe[1]. Elle fait ses études de médecine à la faculté de Bordeaux, puis à l'université Paris 6 - Hôpital Saint-Antoine. Elle soutient sa thèse en 1978[2]. Formée aux États-Unis à la victimologie, elle développe le principe de « harcèlement moral » en France.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie-France Hirigoyen naît à Coulaines, dans la Sarthe. Elle fait ses études de médecine à la faculté de Bordeaux, puis à l'université Paris 6 - Hôpital Saint-Antoine. Elle soutient sa thèse en 1978. Formée aux États-Unis à la victimologie, elle développe le principe de « harcèlement moral » en France.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Le Harcèlement moral</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son essai Le Harcèlement moral : la violence perverse au quotidien, paru en 1998, elle évoque les effets destructeurs (souffrance, dépression, traumatisme psychique, suicide) provoqués par les pervers narcissiques, identifiés à des prédateurs, sur le psychisme de leurs victimes en milieu conjugal, familial, éducatif et professionnel.
-Spécialisée en gestion du stress en entreprise, elle contribue à l'introduction d'un amendement de loi contre le harcèlement moral dans le code du travail[3], une notion qu'elle analyse dans son deuxième ouvrage sur la violence psychologique au travail, Malaise au travail. Harcèlement moral: démêler le vrai du faux, paru en mars 2001.
-Marie-France Hirigoyen adapte à la France un concept développé aux États-Unis et en Suède[note 1]. Lamote et Hamon résument ainsi son analyse : « le harcèlement moral désigne une situation (familiale, professionnelle) dans le cadre de laquelle un Autre jouisseur vampirise une victime passive via de sournois mécanismes de domination manipulatoire. Comme le gourou, le harceleur use lui aussi de l’emprise, cette action insidieuse qui retire tout sens critique et peut aller jusqu’à la captation de l’esprit de l’autre, comme dans un véritable lavage de cerveau. En conséquence, la victime est prise dans une toile d’araignée, tenue à disposition, ligotée psychologiquement, anesthésiée. »[4]
+Spécialisée en gestion du stress en entreprise, elle contribue à l'introduction d'un amendement de loi contre le harcèlement moral dans le code du travail, une notion qu'elle analyse dans son deuxième ouvrage sur la violence psychologique au travail, Malaise au travail. Harcèlement moral: démêler le vrai du faux, paru en mars 2001.
+Marie-France Hirigoyen adapte à la France un concept développé aux États-Unis et en Suède[note 1]. Lamote et Hamon résument ainsi son analyse : « le harcèlement moral désigne une situation (familiale, professionnelle) dans le cadre de laquelle un Autre jouisseur vampirise une victime passive via de sournois mécanismes de domination manipulatoire. Comme le gourou, le harceleur use lui aussi de l’emprise, cette action insidieuse qui retire tout sens critique et peut aller jusqu’à la captation de l’esprit de l’autre, comme dans un véritable lavage de cerveau. En conséquence, la victime est prise dans une toile d’araignée, tenue à disposition, ligotée psychologiquement, anesthésiée. »
 Le Harcèlement moral a été un grand succès de librairie.
-Elle publie en 2014 Le harcèlement moral au travail dans la collection « Que sais-je? » qui décortique les mécanismes du harcèlement et propose un condensé de ses travaux précédents sur le sujet[5].
+Elle publie en 2014 Le harcèlement moral au travail dans la collection « Que sais-je? » qui décortique les mécanismes du harcèlement et propose un condensé de ses travaux précédents sur le sujet.
 </t>
         </is>
       </c>
@@ -579,23 +595,20 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ouvrages
-Le Harcèlement moral : la violence perverse au quotidien, Syros, 1998 ; édition de poche Pocket, 1999 ; Éditions La Découverte, 2003
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Harcèlement moral : la violence perverse au quotidien, Syros, 1998 ; édition de poche Pocket, 1999 ; Éditions La Découverte, 2003
 Malaise au travail. Harcèlement moral : démêler le vrai du faux, Syros, 2001 ; édition de poche Pocket, 2002 ; Éditions La Découverte, 2004
 Femmes sous emprise - Les ressorts de la violence dans le couple, Éd. de Noyelles, 2205 ; Oh ! éd., 2005 ; Pocket, 2006
 Les nouvelles solitudes, Éditions La Découverte, 2007 ; Marabout, 2008
 Abus de faiblesse et autres manipulations, Éditions Jean-Claude Lattès, 2012 ; Le livre de poche, 2013
 Le Harcèlement moral au travail, PUF, coll. « Que sais-je ? » n° 3995, 2013
 Les Narcisse. Ils ont pris le pouvoir, Éditions La Découverte, 2019
-Séparation avec enfants : Conflits, violences, manipulations, La Découverte, coll. « Cahiers libres », 2024, 224 p. (ISBN 9782348080500).
-Articles
-« Le harcèlement moral au travail en 2003 », Le journal international de victimologie, n° 3, p. 1-10 [lire en ligne]
-« La violence psychologique », Droit et justice, n° 56, p. 43-53.
-« La souffrance au travail et les pathologies émergentes », L'information psychiatrique, vol. 84, n° 9, 2008, p. 821-826 [lire en ligne]
-« Pourquoi il est important d'aider les femmes à refuser la violence psychologique », in Ginette Francequin, Tu me fais peur quand tu cries ! Sortir des violences conjugales, ERES, 2010, p. 53-61
-« De la peur à la soumission », Empan, vol. 73, n° 1, 2009, p. 24-30 [lire en ligne]
-Vidéo
-Brigitte Lemaine, Les blessures de l'âme, participantes : Nadia Dahou, Marie-France Hirigoyen, les Écrans du social, 2009.</t>
+Séparation avec enfants : Conflits, violences, manipulations, La Découverte, coll. « Cahiers libres », 2024, 224 p. (ISBN 9782348080500).</t>
         </is>
       </c>
     </row>
@@ -620,12 +633,90 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« Le harcèlement moral au travail en 2003 », Le journal international de victimologie, n° 3, p. 1-10 [lire en ligne]
+« La violence psychologique », Droit et justice, n° 56, p. 43-53.
+« La souffrance au travail et les pathologies émergentes », L'information psychiatrique, vol. 84, n° 9, 2008, p. 821-826 [lire en ligne]
+« Pourquoi il est important d'aider les femmes à refuser la violence psychologique », in Ginette Francequin, Tu me fais peur quand tu cries ! Sortir des violences conjugales, ERES, 2010, p. 53-61
+« De la peur à la soumission », Empan, vol. 73, n° 1, 2009, p. 24-30 [lire en ligne]</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marie-France_Hirigoyen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-France_Hirigoyen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vidéo</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Brigitte Lemaine, Les blessures de l'âme, participantes : Nadia Dahou, Marie-France Hirigoyen, les Écrans du social, 2009.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marie-France_Hirigoyen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-France_Hirigoyen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de l'ordre national du Mérite. Elle a été promue officier par décret du 13 mai 2016[6].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de l'ordre national du Mérite. Elle a été promue officier par décret du 13 mai 2016.</t>
         </is>
       </c>
     </row>
